--- a/Gestão/PlanilhadeRiscos Turtle life.xlsx
+++ b/Gestão/PlanilhadeRiscos Turtle life.xlsx
@@ -5,87 +5,147 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeb03d78f3bc2b8/Área de Trabalho/Sprint 2/Sprint-2-turtlelife/Gestão/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PRIMEIRO SEMESTRE\Pesquisa e Inovação\Sprint-2-turtlelife\Gestão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_4FF6F7550CF9E39ADE6A08082C98B83A1C0024E3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{079C9A44-CB70-4C43-8F9F-0ED1F16FE0CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02404236-CBCF-4097-9198-7F1DA96180E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Descrição do Risco</t>
-  </si>
-  <si>
-    <t>Fator de Risco (P)x(I)</t>
-  </si>
-  <si>
     <t>Como?</t>
   </si>
   <si>
-    <t>Probabilidade(P)   1- Baixa                   2- Média                  3- Alta</t>
-  </si>
-  <si>
-    <t>Impacto(I)1- Baixa                   2- Média                  3- Alta</t>
-  </si>
-  <si>
-    <t>Ação? Evitar x Mitigar</t>
-  </si>
-  <si>
-    <t>ação</t>
-  </si>
-  <si>
-    <t>reestribuição de tarefas para cada integrante</t>
-  </si>
-  <si>
     <t xml:space="preserve">ausência de integrante ou desfalque </t>
   </si>
   <si>
-    <t>Atraso de tarefas ou falta de compromisso</t>
-  </si>
-  <si>
     <t>Evitar</t>
   </si>
   <si>
     <t>mitigar</t>
   </si>
   <si>
-    <t>Reuniões para definição de ideias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relatórios do que foi e será feito </t>
-  </si>
-  <si>
     <t>Falta de nivelamento entre o grupo</t>
   </si>
   <si>
-    <t>distribuição de tarefas de acordo com a dificuldade</t>
-  </si>
-  <si>
     <t xml:space="preserve">Falta de comunicação </t>
+  </si>
+  <si>
+    <t>Falta de compromisso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atraso de tarefas </t>
+  </si>
+  <si>
+    <t>Falta de entrosamento</t>
+  </si>
+  <si>
+    <t>Descrição de Risco</t>
+  </si>
+  <si>
+    <t>Probabilidade</t>
+  </si>
+  <si>
+    <t>1-Baixa</t>
+  </si>
+  <si>
+    <t>2-Média</t>
+  </si>
+  <si>
+    <t>3-Alta</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>(P) x (I)</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversar para saber o motivo da falta de compromisso, e se houver algum problema tomar a melhor decisão. </t>
+  </si>
+  <si>
+    <t>Médio (2)</t>
+  </si>
+  <si>
+    <t>Alto (3)</t>
+  </si>
+  <si>
+    <t>Pouco Provável (1)</t>
+  </si>
+  <si>
+    <t>Provável (2)</t>
+  </si>
+  <si>
+    <t>Muito Provável (3)</t>
+  </si>
+  <si>
+    <t>Perda de informações</t>
+  </si>
+  <si>
+    <t>Fator de Risco</t>
+  </si>
+  <si>
+    <t>Com comunicação e mantendo o projeto 100% configurado/ atualizado no Git Hub.</t>
+  </si>
+  <si>
+    <t>Reestribuição de tarefas para cada integrante.</t>
+  </si>
+  <si>
+    <t>Relatórios do que foi e será feito.</t>
+  </si>
+  <si>
+    <t>Reuniões para definição de ideias.</t>
+  </si>
+  <si>
+    <t>Distribuição de tarefas de acordo com a dificuldade.</t>
+  </si>
+  <si>
+    <t>Reuniões mais frequentes, saber as dificuldades dos membros.</t>
+  </si>
+  <si>
+    <t>Baixo (1)</t>
+  </si>
+  <si>
+    <t>Planilha de Risco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +161,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +199,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -125,28 +233,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -155,9 +272,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -165,30 +315,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,236 +670,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C93DE82-BCFC-4C09-8298-3E550D735951}">
+  <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.21875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="6" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10">
+        <v>6</v>
+      </c>
+      <c r="M7" s="10">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="M9" s="8">
+        <v>6</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="13">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="N6:N12"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Gestão/PlanilhadeRiscos Turtle life.xlsx
+++ b/Gestão/PlanilhadeRiscos Turtle life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PRIMEIRO SEMESTRE\Pesquisa e Inovação\Sprint-2-turtlelife\Gestão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02404236-CBCF-4097-9198-7F1DA96180E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A945F3-D21F-4B84-AA86-D9219437CE8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,14 +163,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -180,6 +172,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,25 +201,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -326,70 +326,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,6 +403,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -673,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C93DE82-BCFC-4C09-8298-3E550D735951}">
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:M12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,111 +704,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+    <row r="6" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="12" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="11">
-        <v>3</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="K7" s="23">
+        <v>3</v>
+      </c>
+      <c r="L7" s="12">
         <v>6</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="12">
         <v>9</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
@@ -806,35 +817,35 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="26">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="25">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="25">
         <v>2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="24">
         <v>4</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>6</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
@@ -843,35 +854,35 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="24">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="25">
         <v>1</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="25">
         <v>2</v>
       </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="4"/>
+      <c r="M10" s="24">
+        <v>3</v>
+      </c>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
@@ -880,33 +891,33 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="26">
+        <v>3</v>
+      </c>
+      <c r="F11" s="24">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
@@ -915,29 +926,29 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="26">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
         <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
@@ -946,19 +957,19 @@
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="26">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
         <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -969,19 +980,19 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="24">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -992,29 +1003,24 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="26">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="26">
+        <v>3</v>
+      </c>
+      <c r="F15" s="24">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="I6:I12"/>
     <mergeCell ref="N6:N12"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="B5:B8"/>
@@ -1023,6 +1029,11 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="I6:I12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
